--- a/test/project/xlsx/Items.xlsx
+++ b/test/project/xlsx/Items.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\GameDataManger\test\project\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\GameDataManager\test\project\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531604C8-D83B-4E54-A0E4-C7999AD9BB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586893D-ED62-43B1-A25A-B16C8FBC41B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="3735" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="3735" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Equip" sheetId="1" r:id="rId1"/>
-    <sheet name="Consum" sheetId="2" r:id="rId2"/>
+    <sheet name="Equipment" sheetId="1" r:id="rId1"/>
+    <sheet name="Consumable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -730,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4487F3B6-CBE0-403D-A6D4-606FDB076B0B}">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/test/project/xlsx/Items.xlsx
+++ b/test/project/xlsx/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\GameDataManager\test\project\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586893D-ED62-43B1-A25A-B16C8FBC41B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D45A61-E120-4BA9-AA9A-1B1DDA2CB942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="3735" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="990" windowWidth="21525" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Key</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>HealMana,70</t>
+  </si>
+  <si>
+    <t>Text/$Name</t>
+  </si>
+  <si>
+    <t>Text/$Desc</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -731,7 +737,7 @@
   <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test/project/xlsx/Items.xlsx
+++ b/test/project/xlsx/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ykim\.julia\dev\GameDataManager\test\project\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA4B621-E6C7-418C-B861-758E72796E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8868CF1D-1D46-4958-BE4E-44F434C9484D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="16305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Accessory!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4828,8 +4827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B589B206-9644-488D-A838-703C2923A506}">
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4879,6 +4878,9 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>123</v>
       </c>
@@ -4908,6 +4910,9 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>543</v>
       </c>
@@ -4937,6 +4942,9 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>852</v>
       </c>
@@ -4966,6 +4974,9 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>1289</v>
       </c>
@@ -4995,6 +5006,9 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>138</v>
       </c>
@@ -5021,6 +5035,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>716</v>
       </c>
@@ -5044,6 +5061,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>807</v>
       </c>
@@ -5070,6 +5090,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>1268</v>
       </c>
@@ -5093,6 +5116,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>64</v>
       </c>
@@ -5119,6 +5145,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>273</v>
       </c>
@@ -5145,6 +5174,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>384</v>
       </c>
@@ -5171,6 +5203,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>453</v>
       </c>
@@ -5197,6 +5232,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>549</v>
       </c>
@@ -5223,6 +5261,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>793</v>
       </c>
@@ -5246,6 +5287,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>935</v>
       </c>
@@ -5271,7 +5315,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>982</v>
       </c>
@@ -5300,7 +5347,10 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>1008</v>
       </c>
@@ -5326,7 +5376,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
         <v>1010</v>
       </c>
@@ -5352,7 +5405,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>1057</v>
       </c>
@@ -5378,7 +5434,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
         <v>1140</v>
       </c>
@@ -5404,7 +5463,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" t="s">
         <v>1166</v>
       </c>
@@ -5430,7 +5492,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" t="s">
         <v>1239</v>
       </c>
@@ -5456,7 +5521,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" t="s">
         <v>147</v>
       </c>
@@ -5482,7 +5550,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" t="s">
         <v>170</v>
       </c>
@@ -5511,7 +5582,10 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" t="s">
         <v>746</v>
       </c>
@@ -5534,7 +5608,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" t="s">
         <v>1035</v>
       </c>
@@ -5560,7 +5637,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" t="s">
         <v>321</v>
       </c>
@@ -5586,7 +5666,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
         <v>424</v>
       </c>
@@ -5612,7 +5695,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" t="s">
         <v>637</v>
       </c>
@@ -5638,7 +5724,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31" t="s">
         <v>743</v>
       </c>
@@ -5664,7 +5753,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32" t="s">
         <v>1248</v>
       </c>
@@ -5687,7 +5779,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33" t="s">
         <v>73</v>
       </c>
@@ -5713,7 +5808,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34" t="s">
         <v>195</v>
       </c>
@@ -5739,7 +5837,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35" t="s">
         <v>530</v>
       </c>
@@ -5765,7 +5866,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36" t="s">
         <v>632</v>
       </c>
@@ -5791,7 +5895,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37" t="s">
         <v>1089</v>
       </c>
@@ -5817,7 +5924,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38" t="s">
         <v>1194</v>
       </c>
@@ -5843,7 +5953,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="B39" t="s">
         <v>1262</v>
       </c>
@@ -5866,7 +5979,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40" t="s">
         <v>568</v>
       </c>
@@ -5892,7 +6008,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="B41" t="s">
         <v>763</v>
       </c>
@@ -5918,7 +6037,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="B42" t="s">
         <v>765</v>
       </c>
@@ -5944,7 +6066,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43" t="s">
         <v>189</v>
       </c>
@@ -5967,7 +6092,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="B44" t="s">
         <v>287</v>
       </c>
@@ -5993,7 +6121,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="B45" t="s">
         <v>426</v>
       </c>
@@ -6019,7 +6150,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
       <c r="B46" t="s">
         <v>455</v>
       </c>
@@ -6045,7 +6179,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="B47" t="s">
         <v>458</v>
       </c>
@@ -6071,7 +6208,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="B48" t="s">
         <v>462</v>
       </c>
@@ -6097,7 +6237,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="B49" t="s">
         <v>909</v>
       </c>
@@ -6123,7 +6266,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="B50" t="s">
         <v>1207</v>
       </c>
@@ -6149,7 +6295,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51" t="s">
         <v>1243</v>
       </c>
@@ -6175,7 +6324,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52" t="s">
         <v>300</v>
       </c>
@@ -6201,7 +6353,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
       <c r="B53" t="s">
         <v>319</v>
       </c>
@@ -6224,7 +6379,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
       <c r="B54" t="s">
         <v>501</v>
       </c>
@@ -6250,7 +6408,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="B55" t="s">
         <v>683</v>
       </c>
@@ -6276,7 +6437,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="B56" t="s">
         <v>688</v>
       </c>
@@ -6302,7 +6466,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
       <c r="B57" t="s">
         <v>1077</v>
       </c>
@@ -6325,7 +6492,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
       <c r="B58" t="s">
         <v>201</v>
       </c>
@@ -6351,7 +6521,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
       <c r="B59" t="s">
         <v>696</v>
       </c>
@@ -6377,7 +6550,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
       <c r="B60" t="s">
         <v>748</v>
       </c>
@@ -6403,7 +6579,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
       <c r="B61" t="s">
         <v>181</v>
       </c>
@@ -6429,7 +6608,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
       <c r="B62" t="s">
         <v>382</v>
       </c>
@@ -6455,7 +6637,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
       <c r="B63" t="s">
         <v>153</v>
       </c>
@@ -6481,7 +6666,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
       <c r="B64" t="s">
         <v>208</v>
       </c>
@@ -6507,7 +6695,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
       <c r="B65" t="s">
         <v>211</v>
       </c>
@@ -6533,7 +6724,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
       <c r="B66" t="s">
         <v>254</v>
       </c>
@@ -6559,7 +6753,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
       <c r="B67" t="s">
         <v>1028</v>
       </c>
@@ -6585,7 +6782,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
       <c r="B68" t="s">
         <v>1087</v>
       </c>
@@ -6611,7 +6811,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="B69" t="s">
         <v>1253</v>
       </c>
@@ -6637,7 +6840,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
       <c r="B70" t="s">
         <v>430</v>
       </c>
@@ -6663,7 +6869,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
       <c r="B71" t="s">
         <v>487</v>
       </c>
@@ -6689,7 +6898,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
       <c r="B72" t="s">
         <v>521</v>
       </c>
@@ -6715,7 +6927,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
       <c r="B73" t="s">
         <v>1061</v>
       </c>
@@ -6741,7 +6956,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
       <c r="B74" t="s">
         <v>1092</v>
       </c>
@@ -6767,7 +6985,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
       <c r="B75" t="s">
         <v>1250</v>
       </c>
@@ -6793,7 +7014,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
       <c r="B76" t="s">
         <v>21</v>
       </c>
@@ -6822,7 +7046,10 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
       <c r="B77" t="s">
         <v>119</v>
       </c>
@@ -6851,7 +7078,10 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
       <c r="B78" t="s">
         <v>298</v>
       </c>
@@ -6880,7 +7110,10 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
       <c r="B79" t="s">
         <v>342</v>
       </c>
@@ -6909,7 +7142,10 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
       <c r="B80" t="s">
         <v>577</v>
       </c>
@@ -6938,7 +7174,10 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
       <c r="B81" t="s">
         <v>581</v>
       </c>
@@ -6967,7 +7206,10 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="B82" t="s">
         <v>618</v>
       </c>
@@ -6996,7 +7238,10 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="B83" t="s">
         <v>930</v>
       </c>
@@ -7025,7 +7270,10 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="B84" t="s">
         <v>1017</v>
       </c>
@@ -7054,7 +7302,10 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="B85" t="s">
         <v>1246</v>
       </c>
@@ -7083,7 +7334,10 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="B86" t="s">
         <v>1297</v>
       </c>
@@ -7112,7 +7366,10 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="B87" t="s">
         <v>27</v>
       </c>
@@ -7138,7 +7395,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88" t="s">
         <v>125</v>
       </c>
@@ -7164,7 +7424,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89" t="s">
         <v>306</v>
       </c>
@@ -7190,7 +7453,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="B90" t="s">
         <v>403</v>
       </c>
@@ -7216,7 +7482,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
       <c r="B91" t="s">
         <v>476</v>
       </c>
@@ -7242,7 +7511,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
       <c r="B92" t="s">
         <v>551</v>
       </c>
@@ -7268,7 +7540,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
       <c r="B93" t="s">
         <v>1002</v>
       </c>
@@ -7294,7 +7569,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
       <c r="B94" t="s">
         <v>1068</v>
       </c>
@@ -7320,7 +7598,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
       <c r="B95" t="s">
         <v>1108</v>
       </c>
@@ -7346,7 +7627,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
       <c r="B96" t="s">
         <v>177</v>
       </c>
@@ -7372,7 +7656,10 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
       <c r="B97" t="s">
         <v>249</v>
       </c>
@@ -7398,7 +7685,10 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
       <c r="B98" t="s">
         <v>985</v>
       </c>
@@ -7424,7 +7714,10 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
       <c r="B99" t="s">
         <v>1041</v>
       </c>
@@ -7450,7 +7743,10 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
       <c r="B100" t="s">
         <v>862</v>
       </c>
@@ -7476,7 +7772,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
       <c r="B101" t="s">
         <v>1162</v>
       </c>
@@ -7502,7 +7801,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
       <c r="B102" t="s">
         <v>1259</v>
       </c>
@@ -7528,7 +7830,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
       <c r="B103" t="s">
         <v>353</v>
       </c>
@@ -7554,7 +7859,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
       <c r="B104" t="s">
         <v>526</v>
       </c>
@@ -7580,7 +7888,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
       <c r="B105" t="s">
         <v>958</v>
       </c>
@@ -7603,7 +7914,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
       <c r="B106" t="s">
         <v>108</v>
       </c>
@@ -7632,7 +7946,10 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
       <c r="B107" t="s">
         <v>143</v>
       </c>
@@ -7661,7 +7978,10 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
       <c r="B108" t="s">
         <v>151</v>
       </c>
@@ -7690,7 +8010,10 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
       <c r="B109" t="s">
         <v>241</v>
       </c>
@@ -7719,7 +8042,10 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
       <c r="B110" t="s">
         <v>316</v>
       </c>
@@ -7748,7 +8074,10 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
       <c r="B111" t="s">
         <v>327</v>
       </c>
@@ -7777,7 +8106,10 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
       <c r="B112" t="s">
         <v>332</v>
       </c>
@@ -7806,7 +8138,10 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
       <c r="B113" t="s">
         <v>336</v>
       </c>
@@ -7835,7 +8170,10 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
       <c r="B114" t="s">
         <v>349</v>
       </c>
@@ -7864,7 +8202,10 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
       <c r="B115" t="s">
         <v>442</v>
       </c>
@@ -7893,7 +8234,10 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
       <c r="B116" t="s">
         <v>444</v>
       </c>
@@ -7922,7 +8266,10 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
       <c r="B117" t="s">
         <v>513</v>
       </c>
@@ -7951,7 +8298,10 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
       <c r="B118" t="s">
         <v>575</v>
       </c>
@@ -7980,7 +8330,10 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
       <c r="B119" t="s">
         <v>709</v>
       </c>
@@ -8009,7 +8362,10 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
       <c r="B120" t="s">
         <v>961</v>
       </c>
@@ -8038,7 +8394,10 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
       <c r="B121" t="s">
         <v>999</v>
       </c>
@@ -8067,7 +8426,10 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
       <c r="B122" t="s">
         <v>1073</v>
       </c>
@@ -8096,7 +8458,10 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
       <c r="B123" t="s">
         <v>1100</v>
       </c>
@@ -8125,7 +8490,10 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
       <c r="B124" t="s">
         <v>1133</v>
       </c>
@@ -8154,7 +8522,10 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
       <c r="B125" t="s">
         <v>1225</v>
       </c>
@@ -8183,7 +8554,10 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
       <c r="B126" t="s">
         <v>1228</v>
       </c>
@@ -8212,7 +8586,10 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
       <c r="B127" t="s">
         <v>1230</v>
       </c>
@@ -8241,7 +8618,10 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
       <c r="B128" t="s">
         <v>1232</v>
       </c>
@@ -8270,7 +8650,10 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
       <c r="B129" t="s">
         <v>1234</v>
       </c>
@@ -8299,7 +8682,10 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
       <c r="B130" t="s">
         <v>1313</v>
       </c>
@@ -8328,7 +8714,10 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
       <c r="B131" t="s">
         <v>391</v>
       </c>
@@ -8354,7 +8743,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="132" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
       <c r="B132" t="s">
         <v>465</v>
       </c>
@@ -8377,7 +8769,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="133" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
       <c r="B133" t="s">
         <v>711</v>
       </c>
@@ -8403,7 +8798,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="134" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
       <c r="B134" t="s">
         <v>1014</v>
       </c>
@@ -8429,7 +8827,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="135" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
       <c r="B135" t="s">
         <v>1071</v>
       </c>
@@ -8455,7 +8856,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="136" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
       <c r="B136" t="s">
         <v>1155</v>
       </c>
@@ -8481,7 +8885,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="137" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
       <c r="B137" t="s">
         <v>34</v>
       </c>
@@ -8507,7 +8914,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="138" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
       <c r="B138" t="s">
         <v>428</v>
       </c>
@@ -8533,7 +8943,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="139" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
       <c r="B139" t="s">
         <v>721</v>
       </c>
@@ -8559,7 +8972,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="140" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
       <c r="B140" t="s">
         <v>843</v>
       </c>
@@ -8585,7 +9001,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="141" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
       <c r="B141" t="s">
         <v>854</v>
       </c>
@@ -8611,7 +9030,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="142" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
       <c r="B142" t="s">
         <v>916</v>
       </c>
@@ -8637,7 +9059,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="143" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
       <c r="B143" t="s">
         <v>1123</v>
       </c>
@@ -8663,7 +9088,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="144" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
       <c r="B144" t="s">
         <v>94</v>
       </c>
@@ -8689,7 +9117,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="145" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
       <c r="B145" t="s">
         <v>98</v>
       </c>
@@ -8715,7 +9146,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="146" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
       <c r="B146" t="s">
         <v>275</v>
       </c>
@@ -8741,7 +9175,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="147" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
       <c r="B147" t="s">
         <v>629</v>
       </c>
@@ -8767,7 +9204,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="148" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
       <c r="B148" t="s">
         <v>730</v>
       </c>
@@ -8793,7 +9233,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="149" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
       <c r="B149" t="s">
         <v>933</v>
       </c>
@@ -8819,7 +9262,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="150" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
       <c r="B150" t="s">
         <v>1291</v>
       </c>
@@ -8845,7 +9291,10 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="151" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
       <c r="B151" t="s">
         <v>292</v>
       </c>
@@ -8871,7 +9320,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="152" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
       <c r="B152" t="s">
         <v>409</v>
       </c>
@@ -8897,7 +9349,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="153" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
       <c r="B153" t="s">
         <v>447</v>
       </c>
@@ -8920,7 +9375,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="154" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
       <c r="B154" t="s">
         <v>472</v>
       </c>
@@ -8946,7 +9404,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="155" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
       <c r="B155" t="s">
         <v>565</v>
       </c>
@@ -8972,7 +9433,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="156" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
       <c r="B156" t="s">
         <v>771</v>
       </c>
@@ -8998,7 +9462,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="157" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
       <c r="B157" t="s">
         <v>823</v>
       </c>
@@ -9024,7 +9491,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="158" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
       <c r="B158" t="s">
         <v>835</v>
       </c>
@@ -9050,7 +9520,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="159" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
       <c r="B159" t="s">
         <v>837</v>
       </c>
@@ -9076,7 +9549,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="160" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
       <c r="B160" t="s">
         <v>879</v>
       </c>
@@ -9102,7 +9578,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
       <c r="B161" t="s">
         <v>991</v>
       </c>
@@ -9128,7 +9607,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
       <c r="B162" t="s">
         <v>1039</v>
       </c>
@@ -9154,7 +9636,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
       <c r="B163" t="s">
         <v>411</v>
       </c>
@@ -9180,7 +9665,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
       <c r="B164" t="s">
         <v>456</v>
       </c>
@@ -9206,7 +9694,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
       <c r="B165" t="s">
         <v>1306</v>
       </c>
@@ -9232,7 +9723,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
       <c r="B166" t="s">
         <v>283</v>
       </c>
@@ -9261,7 +9755,10 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
       <c r="B167" t="s">
         <v>515</v>
       </c>
@@ -9290,7 +9787,10 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
       <c r="B168" t="s">
         <v>532</v>
       </c>
@@ -9319,7 +9819,10 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
     </row>
-    <row r="169" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
       <c r="B169" t="s">
         <v>733</v>
       </c>
@@ -9348,7 +9851,10 @@
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
       <c r="B170" t="s">
         <v>798</v>
       </c>
@@ -9377,7 +9883,10 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
       <c r="B171" t="s">
         <v>811</v>
       </c>
@@ -9406,7 +9915,10 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
       <c r="B172" t="s">
         <v>827</v>
       </c>
@@ -9435,7 +9947,10 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
     </row>
-    <row r="173" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
       <c r="B173" t="s">
         <v>1111</v>
       </c>
@@ -9464,7 +9979,10 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
       <c r="B174" t="s">
         <v>1222</v>
       </c>
@@ -9493,7 +10011,10 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
     </row>
-    <row r="175" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
       <c r="B175" t="s">
         <v>507</v>
       </c>
@@ -9522,7 +10043,10 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
       <c r="B176" t="s">
         <v>1147</v>
       </c>
@@ -9551,7 +10075,10 @@
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
       <c r="B177" t="s">
         <v>1270</v>
       </c>
@@ -9580,7 +10107,10 @@
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
       <c r="B178" t="s">
         <v>166</v>
       </c>
@@ -9606,7 +10136,10 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
       <c r="B179" t="s">
         <v>127</v>
       </c>
@@ -9635,7 +10168,10 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
       <c r="B180" t="s">
         <v>197</v>
       </c>
@@ -9664,7 +10200,10 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
       <c r="B181" t="s">
         <v>280</v>
       </c>
@@ -9693,7 +10232,10 @@
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
       <c r="B182" t="s">
         <v>597</v>
       </c>
@@ -9722,7 +10264,10 @@
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
       <c r="B183" t="s">
         <v>726</v>
       </c>
@@ -9748,7 +10293,10 @@
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
       <c r="B184" t="s">
         <v>980</v>
       </c>
@@ -9777,7 +10325,10 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
       <c r="B185" t="s">
         <v>1019</v>
       </c>
@@ -9806,7 +10357,10 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
       <c r="B186" t="s">
         <v>1065</v>
       </c>
@@ -9835,7 +10389,10 @@
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
       <c r="B187" t="s">
         <v>1150</v>
       </c>
@@ -9864,7 +10421,10 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
       <c r="B188" t="s">
         <v>406</v>
       </c>
@@ -9885,7 +10445,10 @@
       </c>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
       <c r="B189" t="s">
         <v>417</v>
       </c>
@@ -9918,8 +10481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C27B6F-454C-4A31-86F7-CF710BD2B2D5}">
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9956,7 +10519,7 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>201</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -9979,6 +10542,9 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1002</v>
+      </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
@@ -10000,6 +10566,9 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1003</v>
+      </c>
       <c r="B4" t="s">
         <v>277</v>
       </c>
@@ -10023,6 +10592,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1004</v>
+      </c>
       <c r="B5" t="s">
         <v>344</v>
       </c>
@@ -10044,6 +10616,9 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1005</v>
+      </c>
       <c r="B6" t="s">
         <v>387</v>
       </c>
@@ -10065,6 +10640,9 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1006</v>
+      </c>
       <c r="B7" t="s">
         <v>485</v>
       </c>
@@ -10088,6 +10666,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1007</v>
+      </c>
       <c r="B8" t="s">
         <v>495</v>
       </c>
@@ -10109,6 +10690,9 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1008</v>
+      </c>
       <c r="B9" t="s">
         <v>573</v>
       </c>
@@ -10130,6 +10714,9 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1009</v>
+      </c>
       <c r="B10" t="s">
         <v>642</v>
       </c>
@@ -10151,6 +10738,9 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1010</v>
+      </c>
       <c r="B11" t="s">
         <v>704</v>
       </c>
@@ -10172,6 +10762,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1011</v>
+      </c>
       <c r="B12" t="s">
         <v>741</v>
       </c>
@@ -10193,6 +10786,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1012</v>
+      </c>
       <c r="B13" t="s">
         <v>751</v>
       </c>
@@ -10214,6 +10810,9 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1013</v>
+      </c>
       <c r="B14" t="s">
         <v>757</v>
       </c>
@@ -10237,6 +10836,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1014</v>
+      </c>
       <c r="B15" t="s">
         <v>796</v>
       </c>
@@ -10258,6 +10860,9 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1015</v>
+      </c>
       <c r="B16" t="s">
         <v>846</v>
       </c>
@@ -10280,7 +10885,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1016</v>
+      </c>
       <c r="B17" t="s">
         <v>848</v>
       </c>
@@ -10301,7 +10909,10 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1017</v>
+      </c>
       <c r="B18" t="s">
         <v>941</v>
       </c>
@@ -10322,7 +10933,10 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1018</v>
+      </c>
       <c r="B19" t="s">
         <v>977</v>
       </c>
@@ -10345,7 +10959,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1019</v>
+      </c>
       <c r="B20" t="s">
         <v>1012</v>
       </c>
@@ -10366,7 +10983,10 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1020</v>
+      </c>
       <c r="B21" t="s">
         <v>1044</v>
       </c>
@@ -10389,7 +11009,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1021</v>
+      </c>
       <c r="B22" t="s">
         <v>1176</v>
       </c>
@@ -10410,7 +11033,10 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1022</v>
+      </c>
       <c r="B23" t="s">
         <v>1178</v>
       </c>
@@ -10433,7 +11059,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1023</v>
+      </c>
       <c r="B24" t="s">
         <v>1200</v>
       </c>
@@ -10454,7 +11083,10 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1024</v>
+      </c>
       <c r="B25" t="s">
         <v>1285</v>
       </c>
@@ -10475,7 +11107,10 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1025</v>
+      </c>
       <c r="B26" t="s">
         <v>1287</v>
       </c>
@@ -10496,7 +11131,10 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1026</v>
+      </c>
       <c r="B27" t="s">
         <v>1293</v>
       </c>
@@ -10519,7 +11157,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1027</v>
+      </c>
       <c r="B28" t="s">
         <v>1303</v>
       </c>
@@ -10540,7 +11181,10 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1028</v>
+      </c>
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -10561,7 +11205,10 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1029</v>
+      </c>
       <c r="B30" t="s">
         <v>562</v>
       </c>
@@ -10582,7 +11229,10 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1030</v>
+      </c>
       <c r="B31" t="s">
         <v>640</v>
       </c>
@@ -10603,7 +11253,10 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1031</v>
+      </c>
       <c r="B32" t="s">
         <v>658</v>
       </c>
@@ -10624,7 +11277,10 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1032</v>
+      </c>
       <c r="B33" t="s">
         <v>759</v>
       </c>
@@ -10645,7 +11301,10 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1033</v>
+      </c>
       <c r="B34" t="s">
         <v>769</v>
       </c>
@@ -10666,7 +11325,10 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1034</v>
+      </c>
       <c r="B35" t="s">
         <v>789</v>
       </c>
@@ -10687,7 +11349,10 @@
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1035</v>
+      </c>
       <c r="B36" t="s">
         <v>903</v>
       </c>
@@ -10708,7 +11373,10 @@
       </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1036</v>
+      </c>
       <c r="B37" t="s">
         <v>928</v>
       </c>
@@ -10729,7 +11397,10 @@
       </c>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1037</v>
+      </c>
       <c r="B38" t="s">
         <v>964</v>
       </c>
@@ -10750,7 +11421,10 @@
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1038</v>
+      </c>
       <c r="B39" t="s">
         <v>1026</v>
       </c>
@@ -10771,7 +11445,10 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1039</v>
+      </c>
       <c r="B40" t="s">
         <v>1079</v>
       </c>
@@ -10792,7 +11469,10 @@
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1040</v>
+      </c>
       <c r="B41" t="s">
         <v>70</v>
       </c>
@@ -10813,7 +11493,10 @@
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1041</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>184</v>
       </c>
@@ -10834,7 +11517,10 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1042</v>
+      </c>
       <c r="B43" t="s">
         <v>434</v>
       </c>
@@ -10855,7 +11541,10 @@
       </c>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1043</v>
+      </c>
       <c r="B44" t="s">
         <v>753</v>
       </c>
@@ -10876,7 +11565,10 @@
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1044</v>
+      </c>
       <c r="B45" t="s">
         <v>803</v>
       </c>
@@ -10897,7 +11589,10 @@
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1045</v>
+      </c>
       <c r="B46" t="s">
         <v>898</v>
       </c>
@@ -10918,7 +11613,10 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1046</v>
+      </c>
       <c r="B47" t="s">
         <v>901</v>
       </c>
@@ -10939,7 +11637,10 @@
       </c>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1047</v>
+      </c>
       <c r="B48" t="s">
         <v>905</v>
       </c>
@@ -10960,7 +11661,10 @@
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1048</v>
+      </c>
       <c r="B49" t="s">
         <v>918</v>
       </c>
@@ -10981,7 +11685,10 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1049</v>
+      </c>
       <c r="B50" t="s">
         <v>1022</v>
       </c>
@@ -11002,7 +11709,10 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1050</v>
+      </c>
       <c r="B51" t="s">
         <v>1184</v>
       </c>
@@ -11023,7 +11733,10 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1051</v>
+      </c>
       <c r="B52" t="s">
         <v>31</v>
       </c>
@@ -11044,7 +11757,10 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1052</v>
+      </c>
       <c r="B53" t="s">
         <v>161</v>
       </c>
@@ -11065,7 +11781,10 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1053</v>
+      </c>
       <c r="B54" t="s">
         <v>256</v>
       </c>
@@ -11086,7 +11805,10 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1054</v>
+      </c>
       <c r="B55" t="s">
         <v>309</v>
       </c>
@@ -11107,7 +11829,10 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1055</v>
+      </c>
       <c r="B56" t="s">
         <v>389</v>
       </c>
@@ -11128,7 +11853,10 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1056</v>
+      </c>
       <c r="B57" t="s">
         <v>420</v>
       </c>
@@ -11149,7 +11877,10 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1057</v>
+      </c>
       <c r="B58" t="s">
         <v>489</v>
       </c>
@@ -11170,7 +11901,10 @@
       </c>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1058</v>
+      </c>
       <c r="B59" t="s">
         <v>493</v>
       </c>
@@ -11191,7 +11925,10 @@
       </c>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1059</v>
+      </c>
       <c r="B60" t="s">
         <v>571</v>
       </c>
@@ -11212,7 +11949,10 @@
       </c>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1060</v>
+      </c>
       <c r="B61" t="s">
         <v>625</v>
       </c>
@@ -11233,7 +11973,10 @@
       </c>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1061</v>
+      </c>
       <c r="B62" t="s">
         <v>761</v>
       </c>
@@ -11254,7 +11997,10 @@
       </c>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1062</v>
+      </c>
       <c r="B63" t="s">
         <v>815</v>
       </c>
@@ -11275,7 +12021,10 @@
       </c>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1063</v>
+      </c>
       <c r="B64" t="s">
         <v>869</v>
       </c>
@@ -11296,7 +12045,10 @@
       </c>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1064</v>
+      </c>
       <c r="B65" t="s">
         <v>895</v>
       </c>
@@ -11317,7 +12069,10 @@
       </c>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1065</v>
+      </c>
       <c r="B66" t="s">
         <v>1024</v>
       </c>
@@ -11338,7 +12093,10 @@
       </c>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1066</v>
+      </c>
       <c r="B67" t="s">
         <v>1037</v>
       </c>
@@ -11359,7 +12117,10 @@
       </c>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1067</v>
+      </c>
       <c r="B68" t="s">
         <v>1283</v>
       </c>
@@ -11380,7 +12141,10 @@
       </c>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1068</v>
+      </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
@@ -11400,7 +12164,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1069</v>
+      </c>
       <c r="B70" t="s">
         <v>37</v>
       </c>
@@ -11420,7 +12187,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1070</v>
+      </c>
       <c r="B71" t="s">
         <v>239</v>
       </c>
@@ -11440,7 +12210,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1071</v>
+      </c>
       <c r="B72" t="s">
         <v>395</v>
       </c>
@@ -11460,7 +12233,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1072</v>
+      </c>
       <c r="B73" t="s">
         <v>497</v>
       </c>
@@ -11480,7 +12256,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1073</v>
+      </c>
       <c r="B74" t="s">
         <v>547</v>
       </c>
@@ -11500,7 +12279,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1074</v>
+      </c>
       <c r="B75" t="s">
         <v>554</v>
       </c>
@@ -11520,7 +12302,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1075</v>
+      </c>
       <c r="B76" t="s">
         <v>670</v>
       </c>
@@ -11540,7 +12325,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1076</v>
+      </c>
       <c r="B77" t="s">
         <v>714</v>
       </c>
@@ -11560,7 +12348,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1077</v>
+      </c>
       <c r="B78" t="s">
         <v>719</v>
       </c>
@@ -11580,7 +12371,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1078</v>
+      </c>
       <c r="B79" t="s">
         <v>724</v>
       </c>
@@ -11600,7 +12394,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1079</v>
+      </c>
       <c r="B80" t="s">
         <v>801</v>
       </c>
@@ -11620,7 +12417,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1080</v>
+      </c>
       <c r="B81" t="s">
         <v>817</v>
       </c>
@@ -11640,7 +12440,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1081</v>
+      </c>
       <c r="B82" t="s">
         <v>819</v>
       </c>
@@ -11660,7 +12463,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1082</v>
+      </c>
       <c r="B83" t="s">
         <v>867</v>
       </c>
@@ -11680,7 +12486,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1083</v>
+      </c>
       <c r="B84" t="s">
         <v>871</v>
       </c>
@@ -11700,7 +12509,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1084</v>
+      </c>
       <c r="B85" t="s">
         <v>1202</v>
       </c>
@@ -11717,7 +12529,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1085</v>
+      </c>
       <c r="B86" t="s">
         <v>1203</v>
       </c>
@@ -11737,7 +12552,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1086</v>
+      </c>
       <c r="B87" t="s">
         <v>1205</v>
       </c>
@@ -11757,7 +12575,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1087</v>
+      </c>
       <c r="B88" t="s">
         <v>1241</v>
       </c>
@@ -11777,7 +12598,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1088</v>
+      </c>
       <c r="B89" t="s">
         <v>1295</v>
       </c>
@@ -11797,7 +12621,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1089</v>
+      </c>
       <c r="B90" t="s">
         <v>79</v>
       </c>
@@ -11814,7 +12641,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1090</v>
+      </c>
       <c r="B91" t="s">
         <v>86</v>
       </c>
@@ -11831,7 +12661,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1091</v>
+      </c>
       <c r="B92" t="s">
         <v>88</v>
       </c>
@@ -11848,7 +12681,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1092</v>
+      </c>
       <c r="B93" t="s">
         <v>90</v>
       </c>
@@ -11865,7 +12701,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1093</v>
+      </c>
       <c r="B94" t="s">
         <v>132</v>
       </c>
@@ -11882,7 +12721,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1094</v>
+      </c>
       <c r="B95" t="s">
         <v>175</v>
       </c>
@@ -11899,7 +12741,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1095</v>
+      </c>
       <c r="B96" t="s">
         <v>269</v>
       </c>
@@ -11916,7 +12761,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1096</v>
+      </c>
       <c r="B97" t="s">
         <v>304</v>
       </c>
@@ -11933,7 +12781,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1097</v>
+      </c>
       <c r="B98" t="s">
         <v>330</v>
       </c>
@@ -11950,7 +12801,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1098</v>
+      </c>
       <c r="B99" t="s">
         <v>436</v>
       </c>
@@ -11967,7 +12821,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1099</v>
+      </c>
       <c r="B100" t="s">
         <v>438</v>
       </c>
@@ -11984,7 +12841,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1100</v>
+      </c>
       <c r="B101" t="s">
         <v>460</v>
       </c>
@@ -12001,7 +12861,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1101</v>
+      </c>
       <c r="B102" t="s">
         <v>517</v>
       </c>
@@ -12018,7 +12881,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1102</v>
+      </c>
       <c r="B103" t="s">
         <v>528</v>
       </c>
@@ -12035,7 +12901,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1103</v>
+      </c>
       <c r="B104" t="s">
         <v>557</v>
       </c>
@@ -12052,7 +12921,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1104</v>
+      </c>
       <c r="B105" t="s">
         <v>583</v>
       </c>
@@ -12069,7 +12941,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1105</v>
+      </c>
       <c r="B106" t="s">
         <v>586</v>
       </c>
@@ -12086,7 +12961,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1106</v>
+      </c>
       <c r="B107" t="s">
         <v>588</v>
       </c>
@@ -12103,7 +12981,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1107</v>
+      </c>
       <c r="B108" t="s">
         <v>644</v>
       </c>
@@ -12123,7 +13004,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1108</v>
+      </c>
       <c r="B109" t="s">
         <v>939</v>
       </c>
@@ -12140,7 +13024,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1109</v>
+      </c>
       <c r="B110" t="s">
         <v>953</v>
       </c>
@@ -12157,7 +13044,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1110</v>
+      </c>
       <c r="B111" t="s">
         <v>956</v>
       </c>
@@ -12174,7 +13064,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1111</v>
+      </c>
       <c r="B112" t="s">
         <v>1081</v>
       </c>
@@ -12191,7 +13084,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1112</v>
+      </c>
       <c r="B113" t="s">
         <v>1210</v>
       </c>
@@ -12208,7 +13104,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1113</v>
+      </c>
       <c r="B114" t="s">
         <v>1214</v>
       </c>
@@ -12225,7 +13124,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1114</v>
+      </c>
       <c r="B115" t="s">
         <v>1272</v>
       </c>
@@ -12242,7 +13144,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1115</v>
+      </c>
       <c r="B116" t="s">
         <v>1281</v>
       </c>
@@ -12259,7 +13164,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1116</v>
+      </c>
       <c r="B117" t="s">
         <v>479</v>
       </c>
@@ -12276,7 +13184,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1117</v>
+      </c>
       <c r="B118" t="s">
         <v>607</v>
       </c>
@@ -12293,7 +13204,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1118</v>
+      </c>
       <c r="B119" t="s">
         <v>609</v>
       </c>
@@ -12310,7 +13224,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1119</v>
+      </c>
       <c r="B120" t="s">
         <v>611</v>
       </c>
@@ -12330,7 +13247,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1120</v>
+      </c>
       <c r="B121" t="s">
         <v>635</v>
       </c>
@@ -12347,7 +13267,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1121</v>
+      </c>
       <c r="B122" t="s">
         <v>664</v>
       </c>
@@ -12364,7 +13287,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1122</v>
+      </c>
       <c r="B123" t="s">
         <v>856</v>
       </c>
@@ -12381,7 +13307,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1123</v>
+      </c>
       <c r="B124" t="s">
         <v>865</v>
       </c>
@@ -12398,7 +13327,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="125" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1124</v>
+      </c>
       <c r="B125" t="s">
         <v>969</v>
       </c>
@@ -12415,7 +13347,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1125</v>
+      </c>
       <c r="B126" t="s">
         <v>973</v>
       </c>
@@ -12432,7 +13367,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1126</v>
+      </c>
       <c r="B127" t="s">
         <v>975</v>
       </c>
@@ -12449,7 +13387,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1127</v>
+      </c>
       <c r="B128" t="s">
         <v>1131</v>
       </c>
@@ -12466,7 +13407,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="129" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1128</v>
+      </c>
       <c r="B129" t="s">
         <v>1145</v>
       </c>
@@ -12483,7 +13427,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="130" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1129</v>
+      </c>
       <c r="B130" t="s">
         <v>1164</v>
       </c>
@@ -12500,7 +13447,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="131" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1130</v>
+      </c>
       <c r="B131" t="s">
         <v>1196</v>
       </c>
@@ -12517,7 +13467,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="132" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1131</v>
+      </c>
       <c r="B132" t="s">
         <v>1301</v>
       </c>
@@ -12534,7 +13487,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="133" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1132</v>
+      </c>
       <c r="B133" t="s">
         <v>16</v>
       </c>
@@ -12551,7 +13507,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1133</v>
+      </c>
       <c r="B134" t="s">
         <v>100</v>
       </c>
@@ -12568,7 +13527,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1134</v>
+      </c>
       <c r="B135" t="s">
         <v>159</v>
       </c>
@@ -12585,7 +13547,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1135</v>
+      </c>
       <c r="B136" t="s">
         <v>205</v>
       </c>
@@ -12602,7 +13567,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1136</v>
+      </c>
       <c r="B137" t="s">
         <v>214</v>
       </c>
@@ -12619,7 +13587,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1137</v>
+      </c>
       <c r="B138" t="s">
         <v>216</v>
       </c>
@@ -12636,7 +13607,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1138</v>
+      </c>
       <c r="B139" t="s">
         <v>218</v>
       </c>
@@ -12653,7 +13627,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1139</v>
+      </c>
       <c r="B140" t="s">
         <v>220</v>
       </c>
@@ -12670,7 +13647,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1140</v>
+      </c>
       <c r="B141" t="s">
         <v>222</v>
       </c>
@@ -12687,7 +13667,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1141</v>
+      </c>
       <c r="B142" t="s">
         <v>224</v>
       </c>
@@ -12704,7 +13687,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1142</v>
+      </c>
       <c r="B143" t="s">
         <v>226</v>
       </c>
@@ -12721,7 +13707,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1143</v>
+      </c>
       <c r="B144" t="s">
         <v>229</v>
       </c>
@@ -12738,7 +13727,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1144</v>
+      </c>
       <c r="B145" t="s">
         <v>231</v>
       </c>
@@ -12755,7 +13747,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1145</v>
+      </c>
       <c r="B146" t="s">
         <v>233</v>
       </c>
@@ -12772,7 +13767,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1146</v>
+      </c>
       <c r="B147" t="s">
         <v>235</v>
       </c>
@@ -12789,7 +13787,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1147</v>
+      </c>
       <c r="B148" t="s">
         <v>237</v>
       </c>
@@ -12806,7 +13807,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1148</v>
+      </c>
       <c r="B149" t="s">
         <v>267</v>
       </c>
@@ -12823,7 +13827,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1149</v>
+      </c>
       <c r="B150" t="s">
         <v>351</v>
       </c>
@@ -12840,7 +13847,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1150</v>
+      </c>
       <c r="B151" t="s">
         <v>503</v>
       </c>
@@ -12857,7 +13867,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1151</v>
+      </c>
       <c r="B152" t="s">
         <v>541</v>
       </c>
@@ -12874,7 +13887,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1152</v>
+      </c>
       <c r="B153" t="s">
         <v>545</v>
       </c>
@@ -12894,7 +13910,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1153</v>
+      </c>
       <c r="B154" t="s">
         <v>591</v>
       </c>
@@ -12911,7 +13930,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1154</v>
+      </c>
       <c r="B155" t="s">
         <v>599</v>
       </c>
@@ -12928,7 +13950,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1155</v>
+      </c>
       <c r="B156" t="s">
         <v>623</v>
       </c>
@@ -12945,7 +13970,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1156</v>
+      </c>
       <c r="B157" t="s">
         <v>660</v>
       </c>
@@ -12962,7 +13990,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1157</v>
+      </c>
       <c r="B158" t="s">
         <v>672</v>
       </c>
@@ -12979,7 +14010,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1158</v>
+      </c>
       <c r="B159" t="s">
         <v>674</v>
       </c>
@@ -12996,7 +14030,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1159</v>
+      </c>
       <c r="B160" t="s">
         <v>676</v>
       </c>
@@ -13013,7 +14050,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1160</v>
+      </c>
       <c r="B161" t="s">
         <v>678</v>
       </c>
@@ -13030,7 +14070,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1161</v>
+      </c>
       <c r="B162" t="s">
         <v>672</v>
       </c>
@@ -13047,7 +14090,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1162</v>
+      </c>
       <c r="B163" t="s">
         <v>681</v>
       </c>
@@ -13064,7 +14110,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1163</v>
+      </c>
       <c r="B164" t="s">
         <v>701</v>
       </c>
@@ -13081,7 +14130,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1164</v>
+      </c>
       <c r="B165" t="s">
         <v>706</v>
       </c>
@@ -13098,7 +14150,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1165</v>
+      </c>
       <c r="B166" t="s">
         <v>717</v>
       </c>
@@ -13115,7 +14170,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1166</v>
+      </c>
       <c r="B167" t="s">
         <v>737</v>
       </c>
@@ -13132,7 +14190,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1167</v>
+      </c>
       <c r="B168" t="s">
         <v>755</v>
       </c>
@@ -13149,7 +14210,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1168</v>
+      </c>
       <c r="B169" t="s">
         <v>767</v>
       </c>
@@ -13166,7 +14230,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1169</v>
+      </c>
       <c r="B170" t="s">
         <v>839</v>
       </c>
@@ -13183,7 +14250,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1170</v>
+      </c>
       <c r="B171" t="s">
         <v>850</v>
       </c>
@@ -13200,7 +14270,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1171</v>
+      </c>
       <c r="B172" t="s">
         <v>920</v>
       </c>
@@ -13217,7 +14290,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1172</v>
+      </c>
       <c r="B173" t="s">
         <v>943</v>
       </c>
@@ -13234,7 +14310,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1173</v>
+      </c>
       <c r="B174" t="s">
         <v>967</v>
       </c>
@@ -13251,7 +14330,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1174</v>
+      </c>
       <c r="B175" t="s">
         <v>989</v>
       </c>
@@ -13268,7 +14350,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1175</v>
+      </c>
       <c r="B176" t="s">
         <v>997</v>
       </c>
@@ -13285,7 +14370,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1176</v>
+      </c>
       <c r="B177" t="s">
         <v>1046</v>
       </c>
@@ -13302,7 +14390,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1177</v>
+      </c>
       <c r="B178" t="s">
         <v>1048</v>
       </c>
@@ -13319,7 +14410,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1178</v>
+      </c>
       <c r="B179" t="s">
         <v>1052</v>
       </c>
@@ -13336,7 +14430,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1179</v>
+      </c>
       <c r="B180" t="s">
         <v>1059</v>
       </c>
@@ -13353,7 +14450,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1180</v>
+      </c>
       <c r="B181" t="s">
         <v>1083</v>
       </c>
@@ -13370,7 +14470,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1181</v>
+      </c>
       <c r="B182" t="s">
         <v>1121</v>
       </c>
@@ -13387,7 +14490,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1182</v>
+      </c>
       <c r="B183" t="s">
         <v>1136</v>
       </c>
@@ -13404,7 +14510,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1183</v>
+      </c>
       <c r="B184" t="s">
         <v>1143</v>
       </c>
@@ -13421,7 +14530,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1184</v>
+      </c>
       <c r="B185" t="s">
         <v>1160</v>
       </c>
@@ -13438,7 +14550,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1185</v>
+      </c>
       <c r="B186" t="s">
         <v>1190</v>
       </c>
@@ -13455,7 +14570,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1186</v>
+      </c>
       <c r="B187" t="s">
         <v>1192</v>
       </c>
@@ -13472,7 +14590,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1187</v>
+      </c>
       <c r="B188" t="s">
         <v>1212</v>
       </c>
@@ -13489,7 +14610,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1188</v>
+      </c>
       <c r="B189" t="s">
         <v>1218</v>
       </c>
@@ -13506,7 +14630,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1189</v>
+      </c>
       <c r="B190" t="s">
         <v>1220</v>
       </c>
@@ -13523,7 +14650,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1190</v>
+      </c>
       <c r="B191" t="s">
         <v>1236</v>
       </c>
@@ -13540,7 +14670,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1191</v>
+      </c>
       <c r="B192" t="s">
         <v>1264</v>
       </c>
@@ -13557,7 +14690,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1192</v>
+      </c>
       <c r="B193" t="s">
         <v>1277</v>
       </c>
@@ -13574,7 +14710,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1193</v>
+      </c>
       <c r="B194" t="s">
         <v>1279</v>
       </c>
@@ -13591,7 +14730,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1194</v>
+      </c>
       <c r="B195" t="s">
         <v>1309</v>
       </c>
@@ -13608,7 +14750,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1195</v>
+      </c>
       <c r="B196" t="s">
         <v>244</v>
       </c>
@@ -13625,7 +14770,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="197" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1196</v>
+      </c>
       <c r="B197" t="s">
         <v>112</v>
       </c>
@@ -13642,7 +14790,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="198" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1197</v>
+      </c>
       <c r="B198" t="s">
         <v>115</v>
       </c>
@@ -13659,7 +14810,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="199" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1198</v>
+      </c>
       <c r="B199" t="s">
         <v>134</v>
       </c>
@@ -13676,7 +14830,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="200" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1199</v>
+      </c>
       <c r="B200" t="s">
         <v>136</v>
       </c>
@@ -13693,7 +14850,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="201" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1200</v>
+      </c>
       <c r="B201" t="s">
         <v>173</v>
       </c>
@@ -13710,7 +14870,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="202" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1201</v>
+      </c>
       <c r="B202" t="s">
         <v>290</v>
       </c>
@@ -13727,7 +14890,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="203" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1202</v>
+      </c>
       <c r="B203" t="s">
         <v>313</v>
       </c>
@@ -13744,7 +14910,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="204" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1203</v>
+      </c>
       <c r="B204" t="s">
         <v>491</v>
       </c>
@@ -13761,7 +14930,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="205" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1204</v>
+      </c>
       <c r="B205" t="s">
         <v>499</v>
       </c>
@@ -13778,7 +14950,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="206" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1205</v>
+      </c>
       <c r="B206" t="s">
         <v>537</v>
       </c>
@@ -13795,7 +14970,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="207" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1206</v>
+      </c>
       <c r="B207" t="s">
         <v>539</v>
       </c>
@@ -13812,7 +14990,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="208" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1207</v>
+      </c>
       <c r="B208" t="s">
         <v>593</v>
       </c>
@@ -13829,7 +15010,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="209" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1208</v>
+      </c>
       <c r="B209" t="s">
         <v>601</v>
       </c>
@@ -13846,7 +15030,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="210" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1209</v>
+      </c>
       <c r="B210" t="s">
         <v>603</v>
       </c>
@@ -13863,7 +15050,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="211" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1210</v>
+      </c>
       <c r="B211" t="s">
         <v>605</v>
       </c>
@@ -13880,7 +15070,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="212" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1211</v>
+      </c>
       <c r="B212" t="s">
         <v>612</v>
       </c>
@@ -13897,7 +15090,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="213" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1212</v>
+      </c>
       <c r="B213" t="s">
         <v>656</v>
       </c>
@@ -13914,7 +15110,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="214" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1213</v>
+      </c>
       <c r="B214" t="s">
         <v>690</v>
       </c>
@@ -13931,7 +15130,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="215" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1214</v>
+      </c>
       <c r="B215" t="s">
         <v>692</v>
       </c>
@@ -13948,7 +15150,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="216" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1215</v>
+      </c>
       <c r="B216" t="s">
         <v>694</v>
       </c>
@@ -13965,7 +15170,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="217" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1216</v>
+      </c>
       <c r="B217" t="s">
         <v>739</v>
       </c>
@@ -13982,7 +15190,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="218" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1217</v>
+      </c>
       <c r="B218" t="s">
         <v>907</v>
       </c>
@@ -13999,7 +15210,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="219" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1218</v>
+      </c>
       <c r="B219" t="s">
         <v>922</v>
       </c>
@@ -14016,7 +15230,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="220" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1219</v>
+      </c>
       <c r="B220" t="s">
         <v>946</v>
       </c>
@@ -14033,7 +15250,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="221" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1220</v>
+      </c>
       <c r="B221" t="s">
         <v>971</v>
       </c>
@@ -14050,7 +15270,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="222" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1221</v>
+      </c>
       <c r="B222" s="2" t="s">
         <v>1054</v>
       </c>
@@ -14067,7 +15290,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="223" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1222</v>
+      </c>
       <c r="B223" t="s">
         <v>1075</v>
       </c>
@@ -14084,7 +15310,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="224" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1223</v>
+      </c>
       <c r="B224" t="s">
         <v>1085</v>
       </c>
@@ -14101,7 +15330,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="225" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1224</v>
+      </c>
       <c r="B225" t="s">
         <v>1103</v>
       </c>
@@ -14118,7 +15350,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="226" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1225</v>
+      </c>
       <c r="B226" t="s">
         <v>1106</v>
       </c>
@@ -14135,7 +15370,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="227" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1226</v>
+      </c>
       <c r="B227" t="s">
         <v>1113</v>
       </c>
@@ -14152,7 +15390,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="228" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1227</v>
+      </c>
       <c r="B228" t="s">
         <v>1138</v>
       </c>
@@ -14169,7 +15410,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="229" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1228</v>
+      </c>
       <c r="B229" t="s">
         <v>1158</v>
       </c>
@@ -14186,7 +15430,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="230" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1229</v>
+      </c>
       <c r="B230" t="s">
         <v>1182</v>
       </c>
@@ -14203,7 +15450,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="231" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1230</v>
+      </c>
       <c r="B231" t="s">
         <v>1198</v>
       </c>
@@ -14220,7 +15470,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="232" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1231</v>
+      </c>
       <c r="B232" t="s">
         <v>1238</v>
       </c>
@@ -14237,7 +15490,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="233" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1232</v>
+      </c>
       <c r="B233" t="s">
         <v>1255</v>
       </c>
@@ -14254,7 +15510,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="234" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1233</v>
+      </c>
       <c r="B234" t="s">
         <v>163</v>
       </c>
@@ -14271,7 +15530,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="235" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1234</v>
+      </c>
       <c r="B235" t="s">
         <v>252</v>
       </c>
@@ -14288,7 +15550,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="236" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1235</v>
+      </c>
       <c r="B236" t="s">
         <v>261</v>
       </c>
@@ -14305,7 +15570,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="237" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1236</v>
+      </c>
       <c r="B237" t="s">
         <v>399</v>
       </c>
@@ -14322,7 +15590,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="238" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1237</v>
+      </c>
       <c r="B238" t="s">
         <v>616</v>
       </c>
@@ -14339,7 +15610,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="239" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1238</v>
+      </c>
       <c r="B239" t="s">
         <v>698</v>
       </c>
@@ -14356,7 +15630,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="240" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1239</v>
+      </c>
       <c r="B240" t="s">
         <v>1097</v>
       </c>
@@ -14373,7 +15650,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="241" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1240</v>
+      </c>
       <c r="B241" t="s">
         <v>82</v>
       </c>
@@ -14390,7 +15670,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="242" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1241</v>
+      </c>
       <c r="B242" t="s">
         <v>92</v>
       </c>
@@ -14407,7 +15690,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="243" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1242</v>
+      </c>
       <c r="B243" t="s">
         <v>511</v>
       </c>
@@ -14424,7 +15710,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="244" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1243</v>
+      </c>
       <c r="B244" t="s">
         <v>535</v>
       </c>
@@ -14441,7 +15730,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="245" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1244</v>
+      </c>
       <c r="B245" t="s">
         <v>621</v>
       </c>
@@ -14458,7 +15750,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="246" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1245</v>
+      </c>
       <c r="B246" t="s">
         <v>926</v>
       </c>
@@ -14475,7 +15770,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="247" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1246</v>
+      </c>
       <c r="B247" t="s">
         <v>948</v>
       </c>
@@ -14492,7 +15790,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="248" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1247</v>
+      </c>
       <c r="B248" t="s">
         <v>950</v>
       </c>
@@ -14509,7 +15810,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="249" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1248</v>
+      </c>
       <c r="B249" t="s">
         <v>258</v>
       </c>
@@ -14526,7 +15830,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="250" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1249</v>
+      </c>
       <c r="B250" t="s">
         <v>668</v>
       </c>
@@ -14543,7 +15850,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="251" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1250</v>
+      </c>
       <c r="B251" t="s">
         <v>924</v>
       </c>
@@ -14560,7 +15870,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="252" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1251</v>
+      </c>
       <c r="B252" t="s">
         <v>1050</v>
       </c>
@@ -14577,7 +15890,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="253" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1252</v>
+      </c>
       <c r="B253" t="s">
         <v>1127</v>
       </c>
@@ -14594,7 +15910,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="254" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1253</v>
+      </c>
       <c r="B254" t="s">
         <v>1257</v>
       </c>
@@ -14611,7 +15930,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1254</v>
+      </c>
       <c r="B255" t="s">
         <v>263</v>
       </c>
@@ -14628,7 +15950,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="256" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1255</v>
+      </c>
       <c r="B256" t="s">
         <v>271</v>
       </c>
@@ -14645,7 +15970,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="257" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1256</v>
+      </c>
       <c r="B257" t="s">
         <v>627</v>
       </c>
@@ -14662,7 +15990,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="258" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1257</v>
+      </c>
       <c r="B258" t="s">
         <v>662</v>
       </c>
@@ -14679,7 +16010,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="259" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1258</v>
+      </c>
       <c r="B259" t="s">
         <v>1094</v>
       </c>
@@ -14699,7 +16033,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1259</v>
+      </c>
       <c r="B260" t="s">
         <v>1180</v>
       </c>
@@ -14725,8 +16062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4487F3B6-CBE0-403D-A6D4-606FDB076B0B}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14780,6 +16117,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -14797,6 +16137,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
@@ -14814,6 +16157,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -14831,6 +16177,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
@@ -14848,6 +16197,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
@@ -14865,6 +16217,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>52</v>
       </c>
@@ -14882,6 +16237,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -14899,6 +16257,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -14916,6 +16277,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
@@ -14933,6 +16297,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>106</v>
       </c>
@@ -14950,6 +16317,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -14967,6 +16337,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>187</v>
       </c>
@@ -14984,6 +16357,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>296</v>
       </c>
@@ -15001,6 +16377,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>324</v>
       </c>
@@ -15017,7 +16396,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>334</v>
       </c>
@@ -15034,7 +16416,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>338</v>
       </c>
@@ -15051,7 +16436,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
         <v>340</v>
       </c>
@@ -15068,7 +16456,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>347</v>
       </c>
@@ -15085,7 +16476,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
         <v>397</v>
       </c>
@@ -15102,7 +16496,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" t="s">
         <v>415</v>
       </c>
@@ -15119,7 +16516,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" t="s">
         <v>467</v>
       </c>
@@ -15136,7 +16536,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" t="s">
         <v>469</v>
       </c>
@@ -15153,7 +16556,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" t="s">
         <v>474</v>
       </c>
@@ -15170,7 +16576,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" t="s">
         <v>483</v>
       </c>
@@ -15187,7 +16596,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" t="s">
         <v>509</v>
       </c>
@@ -15204,7 +16616,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" t="s">
         <v>524</v>
       </c>
@@ -15221,7 +16636,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
         <v>560</v>
       </c>
@@ -15238,7 +16656,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" t="s">
         <v>651</v>
       </c>
@@ -15255,7 +16676,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31" t="s">
         <v>666</v>
       </c>
@@ -15272,7 +16696,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32" t="s">
         <v>686</v>
       </c>
@@ -15289,7 +16716,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33" t="s">
         <v>813</v>
       </c>
@@ -15306,7 +16736,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34" t="s">
         <v>829</v>
       </c>
@@ -15323,7 +16756,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35" t="s">
         <v>831</v>
       </c>
@@ -15340,7 +16776,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36" t="s">
         <v>833</v>
       </c>
@@ -15357,7 +16796,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37" t="s">
         <v>841</v>
       </c>
@@ -15374,7 +16816,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38" t="s">
         <v>874</v>
       </c>
@@ -15391,7 +16836,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="B39" t="s">
         <v>882</v>
       </c>
@@ -15408,7 +16856,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40" t="s">
         <v>885</v>
       </c>
@@ -15425,7 +16876,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="B41" t="s">
         <v>888</v>
       </c>
@@ -15442,7 +16896,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="B42" t="s">
         <v>891</v>
       </c>
@@ -15459,7 +16916,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43" t="s">
         <v>893</v>
       </c>
@@ -15476,7 +16936,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="B44" t="s">
         <v>987</v>
       </c>
@@ -15493,7 +16956,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="B45" t="s">
         <v>1032</v>
       </c>
@@ -15510,7 +16976,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
       <c r="B46" t="s">
         <v>1118</v>
       </c>
@@ -15527,7 +16996,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="B47" t="s">
         <v>1129</v>
       </c>
@@ -15544,7 +17016,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="B48" t="s">
         <v>1188</v>
       </c>
@@ -15561,7 +17036,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="B49" t="s">
         <v>1216</v>
       </c>
@@ -15578,7 +17056,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="B50" t="s">
         <v>1274</v>
       </c>
@@ -15595,7 +17076,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51" t="s">
         <v>103</v>
       </c>
@@ -15612,7 +17096,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52" t="s">
         <v>117</v>
       </c>
@@ -15629,7 +17116,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
       <c r="B53" t="s">
         <v>157</v>
       </c>
@@ -15646,7 +17136,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
       <c r="B54" t="s">
         <v>193</v>
       </c>
@@ -15663,7 +17156,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="B55" t="s">
         <v>199</v>
       </c>
@@ -15680,7 +17176,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="B56" t="s">
         <v>247</v>
       </c>
@@ -15697,7 +17196,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
       <c r="B57" t="s">
         <v>311</v>
       </c>
@@ -15714,7 +17216,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
       <c r="B58" t="s">
         <v>356</v>
       </c>
@@ -15731,7 +17236,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
       <c r="B59" t="s">
         <v>358</v>
       </c>
@@ -15748,7 +17256,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
       <c r="B60" t="s">
         <v>360</v>
       </c>
@@ -15765,7 +17276,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
       <c r="B61" t="s">
         <v>363</v>
       </c>
@@ -15782,7 +17296,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
       <c r="B62" t="s">
         <v>365</v>
       </c>
@@ -15799,7 +17316,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
       <c r="B63" t="s">
         <v>367</v>
       </c>
@@ -15816,7 +17336,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
       <c r="B64" t="s">
         <v>369</v>
       </c>
@@ -15833,7 +17356,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
       <c r="B65" t="s">
         <v>371</v>
       </c>
@@ -15850,7 +17376,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
       <c r="B66" t="s">
         <v>373</v>
       </c>
@@ -15867,7 +17396,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
       <c r="B67" t="s">
         <v>375</v>
       </c>
@@ -15887,7 +17419,10 @@
         <v>376</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
       <c r="B68" t="s">
         <v>378</v>
       </c>
@@ -15904,7 +17439,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="B69" t="s">
         <v>380</v>
       </c>
@@ -15921,7 +17459,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
       <c r="B70" t="s">
         <v>401</v>
       </c>
@@ -15938,7 +17479,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
       <c r="B71" t="s">
         <v>422</v>
       </c>
@@ -15955,7 +17499,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
       <c r="B72" t="s">
         <v>440</v>
       </c>
@@ -15972,7 +17519,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
       <c r="B73" t="s">
         <v>449</v>
       </c>
@@ -15989,7 +17539,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
       <c r="B74" t="s">
         <v>451</v>
       </c>
@@ -16006,7 +17559,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
       <c r="B75" t="s">
         <v>505</v>
       </c>
@@ -16023,7 +17579,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
       <c r="B76" t="s">
         <v>519</v>
       </c>
@@ -16040,7 +17599,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
       <c r="B77" t="s">
         <v>595</v>
       </c>
@@ -16057,7 +17619,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
       <c r="B78" t="s">
         <v>614</v>
       </c>
@@ -16074,7 +17639,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
       <c r="B79" t="s">
         <v>646</v>
       </c>
@@ -16091,7 +17659,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
       <c r="B80" t="s">
         <v>648</v>
       </c>
@@ -16108,7 +17679,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
       <c r="B81" t="s">
         <v>654</v>
       </c>
@@ -16125,7 +17699,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="B82" t="s">
         <v>728</v>
       </c>
@@ -16142,7 +17719,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="B83" t="s">
         <v>773</v>
       </c>
@@ -16159,7 +17739,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="B84" t="s">
         <v>775</v>
       </c>
@@ -16176,7 +17759,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="B85" t="s">
         <v>777</v>
       </c>
@@ -16193,7 +17779,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="B86" t="s">
         <v>779</v>
       </c>
@@ -16210,7 +17799,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="B87" t="s">
         <v>781</v>
       </c>
@@ -16227,7 +17819,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88" t="s">
         <v>783</v>
       </c>
@@ -16244,7 +17839,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89" t="s">
         <v>785</v>
       </c>
@@ -16261,7 +17859,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="B90" t="s">
         <v>787</v>
       </c>
@@ -16278,7 +17879,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
       <c r="B91" t="s">
         <v>791</v>
       </c>
@@ -16295,7 +17899,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
       <c r="B92" t="s">
         <v>805</v>
       </c>
@@ -16312,7 +17919,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
       <c r="B93" t="s">
         <v>809</v>
       </c>
@@ -16329,7 +17939,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
       <c r="B94" t="s">
         <v>821</v>
       </c>
@@ -16346,7 +17959,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
       <c r="B95" t="s">
         <v>825</v>
       </c>
@@ -16363,7 +17979,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
       <c r="B96" t="s">
         <v>858</v>
       </c>
@@ -16380,7 +17999,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
       <c r="B97" t="s">
         <v>860</v>
       </c>
@@ -16397,7 +18019,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
       <c r="B98" t="s">
         <v>877</v>
       </c>
@@ -16414,7 +18039,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
       <c r="B99" t="s">
         <v>913</v>
       </c>
@@ -16431,7 +18059,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
       <c r="B100" t="s">
         <v>994</v>
       </c>
@@ -16448,7 +18079,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
       <c r="B101" t="s">
         <v>1006</v>
       </c>
@@ -16465,7 +18099,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
       <c r="B102" t="s">
         <v>1116</v>
       </c>
@@ -16482,7 +18119,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
       <c r="B103" t="s">
         <v>1153</v>
       </c>
@@ -16499,7 +18139,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
       <c r="B104" t="s">
         <v>1168</v>
       </c>
@@ -16516,7 +18159,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
       <c r="B105" t="s">
         <v>1170</v>
       </c>
@@ -16533,7 +18179,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
       <c r="B106" t="s">
         <v>1172</v>
       </c>
@@ -16550,7 +18199,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
       <c r="B107" t="s">
         <v>1174</v>
       </c>
@@ -16567,7 +18219,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
       <c r="B108" t="s">
         <v>1186</v>
       </c>
@@ -16584,7 +18239,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
       <c r="B109" t="s">
         <v>1266</v>
       </c>
@@ -16601,7 +18259,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
       <c r="B110" t="s">
         <v>1311</v>
       </c>
